--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1476573.748434468</v>
+        <v>1441193.313712767</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1092447.375336353</v>
+        <v>1092447.375336351</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7361966.055782027</v>
+        <v>7361966.055782025</v>
       </c>
     </row>
     <row r="9">
@@ -676,13 +676,13 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>24.92882890167886</v>
+        <v>25.58810603624125</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>47.73673492061303</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="W3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
     </row>
     <row r="4">
@@ -816,61 +816,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.32206764769464</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="D4" t="n">
+      <c r="K4" t="n">
+        <v>14.77440971783335</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="E4" t="n">
+      <c r="R4" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.547657929861279</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>54.19701966463789</v>
+        <v>32.22269238221969</v>
       </c>
       <c r="G5" t="n">
         <v>14.85476540383092</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.88196951678211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,46 +986,46 @@
         <v>54.19701966463789</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G6" t="n">
+        <v>47.73673492061303</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>47.73673492061303</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>54.19701966463789</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>16.32206764769464</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>81.25910235942519</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.1505544713419</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="U8" t="n">
-        <v>118.1505544713419</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>81.91837949398617</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>118.1505544713419</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>104.0670083783594</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>118.1505544713419</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41.019039623137</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>118.1505544713419</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>118.1505544713435</v>
       </c>
     </row>
     <row r="10">
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>60.7625721702648</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>99.15242676576017</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>238.3599479682445</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>55.9798381690774</v>
       </c>
       <c r="S11" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>315.0755768667528</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I12" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246014</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>129.1273122950616</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>95.31032463304045</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -1615,19 +1615,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>30.96459032434263</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>152.5223218189376</v>
+        <v>0.03259437991371818</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.97983816907738</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S14" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I15" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246014</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613734</v>
       </c>
       <c r="S15" t="n">
-        <v>155.3758183558544</v>
+        <v>155.3758183558542</v>
       </c>
       <c r="T15" t="n">
         <v>195.4343982340639</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>222.5326909750901</v>
+        <v>195.7366998404601</v>
       </c>
       <c r="X16" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.7486738677682</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>239.8798905252537</v>
       </c>
       <c r="H17" t="n">
-        <v>308.5122670442876</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>55.97983816907741</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -1940,10 +1940,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H18" t="n">
-        <v>103.3985434322539</v>
+        <v>103.3985434322537</v>
       </c>
       <c r="I18" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246014</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613735</v>
       </c>
       <c r="S18" t="n">
         <v>155.3758183558542</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>11.35327823260206</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>69.7493662625766</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>328.5334011733429</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H20" t="n">
-        <v>324.1439237596927</v>
+        <v>222.1627178648657</v>
       </c>
       <c r="I20" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>55.9798381690774</v>
       </c>
       <c r="S20" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I21" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246014</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613734</v>
       </c>
       <c r="S21" t="n">
         <v>155.3758183558542</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>21.00846084471627</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>95.31032463304041</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>158.1120627472089</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>170.5883299712388</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -2386,7 +2386,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>155.1887879554426</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.3927968208128</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
@@ -2566,7 +2566,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>36.74279200175405</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>41.47279459131978</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -2636,7 +2636,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.0255839274007</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613688</v>
       </c>
       <c r="S27" t="n">
         <v>155.3758183558542</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>73.52712446057062</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>41.79830922448045</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>213.1155689668276</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>381.2818438407914</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
         <v>324.1439237596927</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>247.148820777026</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>125.4273265197892</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>298.1319041199428</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>119.9581269506512</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I33" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246038</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H34" t="n">
-        <v>55.19613804388764</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>139.1148674126772</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
-        <v>256.2183400324251</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>74.54764125282676</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>49.57767843065556</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>128.3927968208128</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>133.4021508128819</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>97.49887537337359</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -3602,7 +3602,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I39" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246038</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613734</v>
       </c>
       <c r="S39" t="n">
         <v>155.3758183558542</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>169.6581009910069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>57.87056767401101</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>20.93540035860913</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -3757,10 +3757,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H41" t="n">
-        <v>245.3834614524947</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>174.714014505568</v>
       </c>
       <c r="T41" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>143.5062320835495</v>
       </c>
       <c r="G42" t="n">
         <v>135.2917907515943</v>
       </c>
       <c r="H42" t="n">
-        <v>103.3985434322539</v>
+        <v>103.3985434322537</v>
       </c>
       <c r="I42" t="n">
         <v>61.32090000246037</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>33.98265709856983</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
-        <v>155.6904612099069</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>298.1319041199433</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>328.318376888555</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>17.00031583799401</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1821887834319</v>
@@ -4158,7 +4158,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J46" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>164.2504634733581</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136.8629790966154</v>
+        <v>81.45257828934241</v>
       </c>
       <c r="C2" t="n">
-        <v>136.8629790966154</v>
+        <v>81.45257828934241</v>
       </c>
       <c r="D2" t="n">
-        <v>136.8629790966154</v>
+        <v>81.45257828934241</v>
       </c>
       <c r="E2" t="n">
-        <v>136.8629790966154</v>
+        <v>81.45257828934241</v>
       </c>
       <c r="F2" t="n">
-        <v>129.4954402273823</v>
+        <v>74.08503942010924</v>
       </c>
       <c r="G2" t="n">
-        <v>114.4906266881591</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="H2" t="n">
-        <v>59.74616238044408</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I2" t="n">
-        <v>5.001698072729027</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J2" t="n">
         <v>4.335761573171031</v>
@@ -4354,28 +4354,28 @@
         <v>216.7880786585516</v>
       </c>
       <c r="R2" t="n">
-        <v>191.6074434043305</v>
+        <v>190.9415069047725</v>
       </c>
       <c r="S2" t="n">
-        <v>191.6074434043305</v>
+        <v>136.1970425970575</v>
       </c>
       <c r="T2" t="n">
-        <v>191.6074434043305</v>
+        <v>81.45257828934241</v>
       </c>
       <c r="U2" t="n">
-        <v>136.8629790966154</v>
+        <v>81.45257828934241</v>
       </c>
       <c r="V2" t="n">
-        <v>136.8629790966154</v>
+        <v>81.45257828934241</v>
       </c>
       <c r="W2" t="n">
-        <v>136.8629790966154</v>
+        <v>81.45257828934241</v>
       </c>
       <c r="X2" t="n">
-        <v>136.8629790966154</v>
+        <v>81.45257828934241</v>
       </c>
       <c r="Y2" t="n">
-        <v>136.8629790966154</v>
+        <v>81.45257828934241</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>11.72907241965593</v>
       </c>
       <c r="K3" t="n">
-        <v>11.72907241965593</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L3" t="n">
-        <v>11.72907241965593</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="M3" t="n">
-        <v>55.82293025457702</v>
+        <v>119.039171355639</v>
       </c>
       <c r="N3" t="n">
-        <v>109.4779797225685</v>
+        <v>119.039171355639</v>
       </c>
       <c r="O3" t="n">
-        <v>163.1330291905601</v>
+        <v>119.039171355639</v>
       </c>
       <c r="P3" t="n">
-        <v>216.7880786585516</v>
+        <v>172.6942208236305</v>
       </c>
       <c r="Q3" t="n">
         <v>216.7880786585516</v>
@@ -4442,19 +4442,19 @@
         <v>216.7880786585516</v>
       </c>
       <c r="U3" t="n">
-        <v>168.5691544963162</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V3" t="n">
-        <v>113.8246901886011</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="W3" t="n">
-        <v>59.08022588088608</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="X3" t="n">
-        <v>4.335761573171031</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.335761573171031</v>
+        <v>52.55468573540642</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.5691544963162</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="C4" t="n">
-        <v>113.8246901886011</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="D4" t="n">
-        <v>59.08022588088608</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="E4" t="n">
-        <v>4.335761573171031</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="F4" t="n">
-        <v>4.335761573171031</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="G4" t="n">
-        <v>4.335761573171031</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="H4" t="n">
-        <v>4.335761573171031</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="I4" t="n">
-        <v>4.335761573171031</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="J4" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K4" t="n">
         <v>4.335761573171031</v>
@@ -4509,31 +4509,31 @@
         <v>185.0560915141895</v>
       </c>
       <c r="Q4" t="n">
-        <v>185.0560915141895</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="R4" t="n">
-        <v>185.0560915141895</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="S4" t="n">
-        <v>185.0560915141895</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="T4" t="n">
-        <v>185.0560915141895</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="U4" t="n">
-        <v>185.0560915141895</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="V4" t="n">
-        <v>185.0560915141895</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="W4" t="n">
-        <v>185.0560915141895</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="X4" t="n">
-        <v>185.0560915141895</v>
+        <v>74.00387206051573</v>
       </c>
       <c r="Y4" t="n">
-        <v>185.0560915141895</v>
+        <v>74.00387206051573</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.08503942010924</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="C5" t="n">
-        <v>74.08503942010924</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="D5" t="n">
-        <v>74.08503942010924</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="E5" t="n">
-        <v>74.08503942010924</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="F5" t="n">
-        <v>19.34057511239419</v>
+        <v>20.00651161195218</v>
       </c>
       <c r="G5" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="H5" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="I5" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J5" t="n">
         <v>4.335761573171031</v>
@@ -4573,19 +4573,19 @@
         <v>57.99081104116254</v>
       </c>
       <c r="L5" t="n">
-        <v>109.4779797225685</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M5" t="n">
-        <v>109.4779797225685</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="N5" t="n">
-        <v>163.1330291905601</v>
+        <v>165.3009099771456</v>
       </c>
       <c r="O5" t="n">
-        <v>216.7880786585516</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="P5" t="n">
-        <v>216.7880786585516</v>
+        <v>212.7691314264261</v>
       </c>
       <c r="Q5" t="n">
         <v>216.7880786585516</v>
@@ -4597,22 +4597,22 @@
         <v>162.0436143508365</v>
       </c>
       <c r="T5" t="n">
-        <v>162.0436143508365</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="U5" t="n">
-        <v>162.0436143508365</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="V5" t="n">
-        <v>162.0436143508365</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="W5" t="n">
-        <v>107.2991500431215</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="X5" t="n">
-        <v>107.2991500431215</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.08503942010924</v>
+        <v>52.55468573540642</v>
       </c>
     </row>
     <row r="6">
@@ -4634,13 +4634,13 @@
         <v>107.2991500431215</v>
       </c>
       <c r="F6" t="n">
-        <v>107.2991500431215</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="G6" t="n">
-        <v>52.55468573540642</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H6" t="n">
-        <v>52.55468573540642</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I6" t="n">
         <v>4.335761573171031</v>
@@ -4649,19 +4649,19 @@
         <v>4.335761573171031</v>
       </c>
       <c r="K6" t="n">
+        <v>4.335761573171031</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.335761573171031</v>
+      </c>
+      <c r="M6" t="n">
         <v>55.82293025457702</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>109.4779797225685</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>163.1330291905601</v>
-      </c>
-      <c r="N6" t="n">
-        <v>163.1330291905601</v>
-      </c>
-      <c r="O6" t="n">
-        <v>216.7880786585516</v>
       </c>
       <c r="P6" t="n">
         <v>216.7880786585516</v>
@@ -4670,7 +4670,7 @@
         <v>216.7880786585516</v>
       </c>
       <c r="R6" t="n">
-        <v>162.0436143508365</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="S6" t="n">
         <v>162.0436143508365</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.335761573171031</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="C7" t="n">
-        <v>4.335761573171031</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="D7" t="n">
-        <v>4.335761573171031</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="E7" t="n">
-        <v>4.335761573171031</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="F7" t="n">
-        <v>4.335761573171031</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="G7" t="n">
         <v>4.335761573171031</v>
@@ -4752,25 +4752,25 @@
         <v>185.0560915141895</v>
       </c>
       <c r="S7" t="n">
-        <v>130.3116272064745</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="T7" t="n">
-        <v>75.56716289875945</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8226985910444</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="V7" t="n">
-        <v>4.335761573171031</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="W7" t="n">
-        <v>4.335761573171031</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="X7" t="n">
-        <v>4.335761573171031</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.335761573171031</v>
+        <v>185.0560915141895</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.82439676616368</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="C8" t="n">
-        <v>31.82439676616368</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="D8" t="n">
-        <v>31.82439676616368</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="E8" t="n">
-        <v>31.82439676616368</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="F8" t="n">
-        <v>24.45685789693051</v>
+        <v>107.2026957696454</v>
       </c>
       <c r="G8" t="n">
-        <v>9.452044357707354</v>
+        <v>92.19788223042224</v>
       </c>
       <c r="H8" t="n">
-        <v>9.452044357707354</v>
+        <v>10.11798085726548</v>
       </c>
       <c r="I8" t="n">
-        <v>9.452044357707354</v>
+        <v>10.11798085726548</v>
       </c>
       <c r="J8" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="K8" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="L8" t="n">
-        <v>126.4210932843359</v>
+        <v>121.6950711054838</v>
       </c>
       <c r="M8" t="n">
-        <v>243.3901422109644</v>
+        <v>238.6641200321139</v>
       </c>
       <c r="N8" t="n">
-        <v>360.3591911375929</v>
+        <v>355.633168958744</v>
       </c>
       <c r="O8" t="n">
-        <v>472.6022178853677</v>
+        <v>472.6022178853741</v>
       </c>
       <c r="P8" t="n">
-        <v>472.6022178853677</v>
+        <v>472.6022178853741</v>
       </c>
       <c r="Q8" t="n">
-        <v>472.6022178853677</v>
+        <v>472.6022178853741</v>
       </c>
       <c r="R8" t="n">
-        <v>353.2582234698708</v>
+        <v>353.2582234698756</v>
       </c>
       <c r="S8" t="n">
-        <v>353.2582234698708</v>
+        <v>233.9142290543771</v>
       </c>
       <c r="T8" t="n">
-        <v>353.2582234698708</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="U8" t="n">
-        <v>233.9142290543739</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="V8" t="n">
-        <v>233.9142290543739</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="W8" t="n">
-        <v>151.1683911816606</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="X8" t="n">
-        <v>31.82439676616368</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.82439676616368</v>
+        <v>114.5702346388786</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96.82936098949692</v>
+        <v>114.5702346388786</v>
       </c>
       <c r="C9" t="n">
-        <v>96.82936098949692</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="D9" t="n">
-        <v>96.82936098949692</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="E9" t="n">
-        <v>96.82936098949692</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="F9" t="n">
-        <v>96.82936098949692</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="G9" t="n">
-        <v>96.82936098949692</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="H9" t="n">
-        <v>96.82936098949692</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="I9" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="J9" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="K9" t="n">
-        <v>126.4210932843359</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="L9" t="n">
-        <v>126.4210932843359</v>
+        <v>126.4210932843376</v>
       </c>
       <c r="M9" t="n">
-        <v>238.6641200321107</v>
+        <v>243.3901422109677</v>
       </c>
       <c r="N9" t="n">
-        <v>238.6641200321107</v>
+        <v>360.3591911375977</v>
       </c>
       <c r="O9" t="n">
-        <v>355.6331689587392</v>
+        <v>360.3591911375977</v>
       </c>
       <c r="P9" t="n">
-        <v>472.6022178853677</v>
+        <v>472.6022178853741</v>
       </c>
       <c r="Q9" t="n">
-        <v>472.6022178853677</v>
+        <v>472.6022178853741</v>
       </c>
       <c r="R9" t="n">
-        <v>376.9507231771948</v>
+        <v>472.6022178853741</v>
       </c>
       <c r="S9" t="n">
-        <v>257.6067287616979</v>
+        <v>472.6022178853741</v>
       </c>
       <c r="T9" t="n">
-        <v>216.1733554049938</v>
+        <v>353.2582234698756</v>
       </c>
       <c r="U9" t="n">
-        <v>216.1733554049938</v>
+        <v>353.2582234698756</v>
       </c>
       <c r="V9" t="n">
-        <v>216.1733554049938</v>
+        <v>353.2582234698756</v>
       </c>
       <c r="W9" t="n">
-        <v>96.82936098949692</v>
+        <v>353.2582234698756</v>
       </c>
       <c r="X9" t="n">
-        <v>96.82936098949692</v>
+        <v>353.2582234698756</v>
       </c>
       <c r="Y9" t="n">
-        <v>96.82936098949692</v>
+        <v>233.9142290543771</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.452044357707354</v>
+        <v>190.172374298726</v>
       </c>
       <c r="C10" t="n">
-        <v>9.452044357707354</v>
+        <v>70.82837988322748</v>
       </c>
       <c r="D10" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="E10" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="F10" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="G10" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="H10" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="I10" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="J10" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="K10" t="n">
-        <v>9.452044357707354</v>
+        <v>9.452044357707482</v>
       </c>
       <c r="L10" t="n">
-        <v>46.53856328442654</v>
+        <v>46.53856328442667</v>
       </c>
       <c r="M10" t="n">
-        <v>96.23399720136602</v>
+        <v>96.23399720136615</v>
       </c>
       <c r="N10" t="n">
-        <v>149.8890466693575</v>
+        <v>149.8890466693577</v>
       </c>
       <c r="O10" t="n">
-        <v>184.1115726190289</v>
+        <v>184.111572619029</v>
       </c>
       <c r="P10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.172374298726</v>
       </c>
       <c r="Q10" t="n">
-        <v>109.6060107877681</v>
+        <v>190.172374298726</v>
       </c>
       <c r="R10" t="n">
-        <v>109.6060107877681</v>
+        <v>190.172374298726</v>
       </c>
       <c r="S10" t="n">
-        <v>109.6060107877681</v>
+        <v>190.172374298726</v>
       </c>
       <c r="T10" t="n">
-        <v>9.452044357707354</v>
+        <v>190.172374298726</v>
       </c>
       <c r="U10" t="n">
-        <v>9.452044357707354</v>
+        <v>190.172374298726</v>
       </c>
       <c r="V10" t="n">
-        <v>9.452044357707354</v>
+        <v>190.172374298726</v>
       </c>
       <c r="W10" t="n">
-        <v>9.452044357707354</v>
+        <v>190.172374298726</v>
       </c>
       <c r="X10" t="n">
-        <v>9.452044357707354</v>
+        <v>190.172374298726</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.452044357707354</v>
+        <v>190.172374298726</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1459.157837123332</v>
+        <v>1539.551869958037</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.157837123332</v>
+        <v>1539.551869958037</v>
       </c>
       <c r="D11" t="n">
-        <v>1098.951036361112</v>
+        <v>1179.345069195816</v>
       </c>
       <c r="E11" t="n">
-        <v>711.9631214567808</v>
+        <v>792.3571542914855</v>
       </c>
       <c r="F11" t="n">
-        <v>711.9631214567808</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="G11" t="n">
-        <v>294.2987307844257</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H11" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I11" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J11" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733071</v>
       </c>
       <c r="K11" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632925</v>
       </c>
       <c r="L11" t="n">
-        <v>877.2105568248486</v>
+        <v>877.2105568248478</v>
       </c>
       <c r="M11" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N11" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O11" t="n">
-        <v>2223.65047400805</v>
+        <v>2223.650474008049</v>
       </c>
       <c r="P11" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q11" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R11" t="n">
         <v>2620.010037624014</v>
       </c>
       <c r="S11" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.358514782327</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.358514782327</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.358514782327</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.358514782327</v>
+        <v>2301.751879172748</v>
       </c>
       <c r="X11" t="n">
-        <v>1849.750838892257</v>
+        <v>1927.144203282678</v>
       </c>
       <c r="Y11" t="n">
-        <v>1459.157837123332</v>
+        <v>1927.144203282678</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670856</v>
       </c>
       <c r="C12" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889029</v>
       </c>
       <c r="D12" t="n">
-        <v>659.1380762478473</v>
+        <v>659.1380762478468</v>
       </c>
       <c r="E12" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507015</v>
       </c>
       <c r="F12" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673184</v>
       </c>
       <c r="G12" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707584</v>
       </c>
       <c r="H12" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068658</v>
       </c>
       <c r="I12" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J12" t="n">
-        <v>129.3364848865957</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K12" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454656</v>
       </c>
       <c r="L12" t="n">
-        <v>790.8061104916226</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M12" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N12" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O12" t="n">
-        <v>2311.81663656517</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P12" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q12" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R12" t="n">
         <v>2626.774708455267</v>
@@ -5165,7 +5165,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>366.5928435525522</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="C13" t="n">
-        <v>366.5928435525522</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D13" t="n">
-        <v>366.5928435525522</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E13" t="n">
-        <v>366.5928435525522</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F13" t="n">
-        <v>366.5928435525522</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G13" t="n">
-        <v>366.5928435525522</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H13" t="n">
-        <v>236.1612149716819</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I13" t="n">
-        <v>99.47634060639649</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J13" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K13" t="n">
-        <v>109.4344173802943</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L13" t="n">
         <v>236.7750235124169</v>
@@ -5223,28 +5223,28 @@
         <v>727.6944649328328</v>
       </c>
       <c r="R13" t="n">
-        <v>580.4019818320926</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="S13" t="n">
-        <v>366.5928435525522</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="T13" t="n">
-        <v>366.5928435525522</v>
+        <v>631.4214097479435</v>
       </c>
       <c r="U13" t="n">
-        <v>366.5928435525522</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="V13" t="n">
-        <v>366.5928435525522</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W13" t="n">
-        <v>366.5928435525522</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="X13" t="n">
-        <v>366.5928435525522</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="Y13" t="n">
-        <v>366.5928435525522</v>
+        <v>53.5311065740778</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.852733949982</v>
+        <v>1582.858704603657</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.160718112666</v>
+        <v>1212.166688766341</v>
       </c>
       <c r="D14" t="n">
-        <v>983.9539173504459</v>
+        <v>851.9598880041203</v>
       </c>
       <c r="E14" t="n">
-        <v>983.9539173504459</v>
+        <v>464.9719730997895</v>
       </c>
       <c r="F14" t="n">
-        <v>952.6765533864634</v>
+        <v>53.56403019015227</v>
       </c>
       <c r="G14" t="n">
-        <v>535.0121627141084</v>
+        <v>53.56403019015227</v>
       </c>
       <c r="H14" t="n">
-        <v>207.594057906338</v>
+        <v>53.56403019015227</v>
       </c>
       <c r="I14" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J14" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K14" t="n">
-        <v>461.1915665632927</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L14" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248484</v>
       </c>
       <c r="M14" t="n">
         <v>1355.324135626645</v>
@@ -5299,31 +5299,31 @@
         <v>2526.389973845557</v>
       </c>
       <c r="Q14" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R14" t="n">
         <v>2620.010037624014</v>
       </c>
       <c r="S14" t="n">
-        <v>2443.531235093138</v>
+        <v>2443.531235093137</v>
       </c>
       <c r="T14" t="n">
-        <v>2443.531235093138</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.531235093138</v>
+        <v>1970.451037928298</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.531235093138</v>
+        <v>1970.451037928298</v>
       </c>
       <c r="W14" t="n">
-        <v>2089.460409840052</v>
+        <v>1970.451037928298</v>
       </c>
       <c r="X14" t="n">
-        <v>1714.852733949982</v>
+        <v>1970.451037928298</v>
       </c>
       <c r="Y14" t="n">
-        <v>1714.852733949982</v>
+        <v>1970.451037928298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670856</v>
       </c>
       <c r="C15" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889029</v>
       </c>
       <c r="D15" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478468</v>
       </c>
       <c r="E15" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507015</v>
       </c>
       <c r="F15" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673184</v>
       </c>
       <c r="G15" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707584</v>
       </c>
       <c r="H15" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068658</v>
       </c>
       <c r="I15" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J15" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K15" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579835</v>
       </c>
       <c r="L15" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916226</v>
       </c>
       <c r="M15" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N15" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O15" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P15" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q15" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R15" t="n">
         <v>2626.774708455267</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="C16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K16" t="n">
-        <v>109.4344173802943</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L16" t="n">
-        <v>236.775023512417</v>
+        <v>236.7750235124169</v>
       </c>
       <c r="M16" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N16" t="n">
-        <v>528.1833689256792</v>
+        <v>528.1833689256791</v>
       </c>
       <c r="O16" t="n">
-        <v>648.2118474172128</v>
+        <v>648.2118474172127</v>
       </c>
       <c r="P16" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="Q16" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="R16" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="S16" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="T16" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="U16" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="V16" t="n">
-        <v>727.6944649328329</v>
+        <v>472.2032012288539</v>
       </c>
       <c r="W16" t="n">
-        <v>502.9139689983985</v>
+        <v>274.4893630061669</v>
       </c>
       <c r="X16" t="n">
         <v>274.4893630061669</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1523.762317720254</v>
+        <v>682.8219412008871</v>
       </c>
       <c r="C17" t="n">
-        <v>1523.762317720254</v>
+        <v>682.8219412008871</v>
       </c>
       <c r="D17" t="n">
-        <v>1163.555516958033</v>
+        <v>682.8219412008871</v>
       </c>
       <c r="E17" t="n">
-        <v>776.5676020537026</v>
+        <v>295.8340262965563</v>
       </c>
       <c r="F17" t="n">
-        <v>365.1596591440653</v>
+        <v>295.8340262965563</v>
       </c>
       <c r="G17" t="n">
-        <v>365.1596591440653</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H17" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I17" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J17" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K17" t="n">
-        <v>461.1915665632927</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L17" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M17" t="n">
         <v>1355.324135626645</v>
@@ -5536,31 +5536,31 @@
         <v>2526.389973845557</v>
       </c>
       <c r="Q17" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R17" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S17" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T17" t="n">
-        <v>2676.555328703891</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U17" t="n">
-        <v>2676.555328703891</v>
+        <v>2146.929840459175</v>
       </c>
       <c r="V17" t="n">
-        <v>2676.555328703891</v>
+        <v>1815.078101547539</v>
       </c>
       <c r="W17" t="n">
-        <v>2676.555328703891</v>
+        <v>1461.007276294454</v>
       </c>
       <c r="X17" t="n">
-        <v>2301.947652813821</v>
+        <v>1461.007276294454</v>
       </c>
       <c r="Y17" t="n">
-        <v>1911.354651044895</v>
+        <v>1070.414274525529</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670856</v>
       </c>
       <c r="C18" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889029</v>
       </c>
       <c r="D18" t="n">
-        <v>659.1380762478473</v>
+        <v>659.1380762478468</v>
       </c>
       <c r="E18" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507015</v>
       </c>
       <c r="F18" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673184</v>
       </c>
       <c r="G18" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707584</v>
       </c>
       <c r="H18" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068658</v>
       </c>
       <c r="I18" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J18" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K18" t="n">
-        <v>309.7001854454657</v>
+        <v>309.7001854454656</v>
       </c>
       <c r="L18" t="n">
-        <v>715.0007321791047</v>
+        <v>715.0007321791046</v>
       </c>
       <c r="M18" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500211</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O18" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P18" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q18" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R18" t="n">
         <v>2626.774708455267</v>
@@ -5639,7 +5639,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.4437254000036</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="C19" t="n">
-        <v>359.4437254000036</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D19" t="n">
-        <v>359.4437254000036</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E19" t="n">
-        <v>359.4437254000036</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F19" t="n">
-        <v>347.9757675892944</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G19" t="n">
-        <v>347.9757675892944</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2159809393632</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I19" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J19" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K19" t="n">
-        <v>109.4344173802943</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L19" t="n">
-        <v>236.775023512417</v>
+        <v>236.7750235124169</v>
       </c>
       <c r="M19" t="n">
-        <v>381.630737830651</v>
+        <v>381.6307378306509</v>
       </c>
       <c r="N19" t="n">
-        <v>528.1833689256792</v>
+        <v>528.183368925679</v>
       </c>
       <c r="O19" t="n">
-        <v>648.2118474172128</v>
+        <v>648.2118474172125</v>
       </c>
       <c r="P19" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328327</v>
       </c>
       <c r="Q19" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328327</v>
       </c>
       <c r="R19" t="n">
-        <v>580.4019818320927</v>
+        <v>580.4019818320925</v>
       </c>
       <c r="S19" t="n">
-        <v>580.4019818320927</v>
+        <v>580.4019818320925</v>
       </c>
       <c r="T19" t="n">
-        <v>580.4019818320927</v>
+        <v>352.4096178820433</v>
       </c>
       <c r="U19" t="n">
-        <v>580.4019818320927</v>
+        <v>352.4096178820433</v>
       </c>
       <c r="V19" t="n">
-        <v>580.4019818320927</v>
+        <v>352.4096178820433</v>
       </c>
       <c r="W19" t="n">
-        <v>580.4019818320927</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="X19" t="n">
-        <v>580.4019818320927</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="Y19" t="n">
-        <v>359.4437254000036</v>
+        <v>53.5311065740778</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1284.528473763577</v>
+        <v>1467.217026640377</v>
       </c>
       <c r="C20" t="n">
-        <v>1284.528473763577</v>
+        <v>1467.217026640377</v>
       </c>
       <c r="D20" t="n">
-        <v>1284.528473763577</v>
+        <v>1107.010225878157</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.528473763577</v>
+        <v>1107.010225878157</v>
       </c>
       <c r="F20" t="n">
-        <v>952.6765533864634</v>
+        <v>695.6022829685194</v>
       </c>
       <c r="G20" t="n">
-        <v>535.0121627141084</v>
+        <v>277.9378922961644</v>
       </c>
       <c r="H20" t="n">
-        <v>207.594057906338</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I20" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J20" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733071</v>
       </c>
       <c r="K20" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632925</v>
       </c>
       <c r="L20" t="n">
-        <v>877.2105568248486</v>
+        <v>877.2105568248478</v>
       </c>
       <c r="M20" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N20" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O20" t="n">
-        <v>2223.65047400805</v>
+        <v>2223.650474008049</v>
       </c>
       <c r="P20" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q20" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R20" t="n">
         <v>2620.010037624014</v>
       </c>
       <c r="S20" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.358514782327</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="U20" t="n">
-        <v>1970.451037928299</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="V20" t="n">
-        <v>1638.599299016663</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="W20" t="n">
-        <v>1284.528473763577</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="X20" t="n">
-        <v>1284.528473763577</v>
+        <v>2245.402361733944</v>
       </c>
       <c r="Y20" t="n">
-        <v>1284.528473763577</v>
+        <v>1854.809359965019</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670856</v>
       </c>
       <c r="C21" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889029</v>
       </c>
       <c r="D21" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478468</v>
       </c>
       <c r="E21" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507015</v>
       </c>
       <c r="F21" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673184</v>
       </c>
       <c r="G21" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707584</v>
       </c>
       <c r="H21" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068658</v>
       </c>
       <c r="I21" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J21" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K21" t="n">
-        <v>309.7001854454656</v>
+        <v>385.5055637579835</v>
       </c>
       <c r="L21" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916226</v>
       </c>
       <c r="M21" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N21" t="n">
         <v>1725.940263988108</v>
@@ -5852,7 +5852,7 @@
         <v>2502.945759567337</v>
       </c>
       <c r="Q21" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R21" t="n">
         <v>2626.774708455267</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2171.418791487765</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="C22" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D22" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E22" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F22" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G22" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H22" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I22" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J22" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K22" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L22" t="n">
-        <v>2185.635887283475</v>
+        <v>236.7750235124169</v>
       </c>
       <c r="M22" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N22" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256791</v>
       </c>
       <c r="O22" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172127</v>
       </c>
       <c r="P22" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="Q22" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="R22" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="S22" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="T22" t="n">
-        <v>2655.334661183975</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="U22" t="n">
-        <v>2655.334661183975</v>
+        <v>438.7865626553464</v>
       </c>
       <c r="V22" t="n">
-        <v>2399.843397479996</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W22" t="n">
-        <v>2399.843397479996</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="X22" t="n">
-        <v>2171.418791487765</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="Y22" t="n">
-        <v>2171.418791487765</v>
+        <v>53.5311065740778</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1495.680013639172</v>
+        <v>583.9322767015036</v>
       </c>
       <c r="C23" t="n">
-        <v>1124.987997801856</v>
+        <v>213.2402608641878</v>
       </c>
       <c r="D23" t="n">
-        <v>1124.987997801856</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E23" t="n">
-        <v>1124.987997801856</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F23" t="n">
-        <v>952.6765533864634</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G23" t="n">
-        <v>535.0121627141084</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H23" t="n">
-        <v>207.594057906338</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I23" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J23" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733071</v>
       </c>
       <c r="K23" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632925</v>
       </c>
       <c r="L23" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248478</v>
       </c>
       <c r="M23" t="n">
         <v>1355.324135626645</v>
@@ -6004,37 +6004,37 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O23" t="n">
-        <v>2223.65047400805</v>
+        <v>2223.650474008049</v>
       </c>
       <c r="P23" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q23" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R23" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="S23" t="n">
-        <v>2443.531235093138</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.358514782327</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.358514782327</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.358514782327</v>
+        <v>2090.796112938226</v>
       </c>
       <c r="W23" t="n">
-        <v>1870.287689529242</v>
+        <v>1736.72528768514</v>
       </c>
       <c r="X23" t="n">
-        <v>1495.680013639172</v>
+        <v>1362.11761179507</v>
       </c>
       <c r="Y23" t="n">
-        <v>1495.680013639172</v>
+        <v>971.5246100261451</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I24" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J24" t="n">
         <v>129.3364848865957</v>
       </c>
       <c r="K24" t="n">
-        <v>385.5055637579836</v>
+        <v>385.5055637579835</v>
       </c>
       <c r="L24" t="n">
         <v>790.8061104916226</v>
@@ -6080,19 +6080,19 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N24" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O24" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P24" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q24" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R24" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S24" t="n">
         <v>2469.829437388747</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="C25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K25" t="n">
-        <v>109.4344173802943</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L25" t="n">
         <v>236.7750235124169</v>
@@ -6177,22 +6177,22 @@
         <v>727.6944649328328</v>
       </c>
       <c r="T25" t="n">
-        <v>570.9381134626888</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="U25" t="n">
-        <v>570.9381134626888</v>
+        <v>598.0047711744361</v>
       </c>
       <c r="V25" t="n">
-        <v>570.9381134626888</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9557125663094</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="X25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1171.417838077945</v>
+        <v>837.8397535555323</v>
       </c>
       <c r="C26" t="n">
-        <v>800.7258222406292</v>
+        <v>837.8397535555323</v>
       </c>
       <c r="D26" t="n">
-        <v>440.5190214784086</v>
+        <v>477.6329527933117</v>
       </c>
       <c r="E26" t="n">
-        <v>53.5311065740778</v>
+        <v>90.64503788898088</v>
       </c>
       <c r="F26" t="n">
         <v>53.5311065740778</v>
@@ -6229,7 +6229,7 @@
         <v>167.7421803733075</v>
       </c>
       <c r="K26" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L26" t="n">
         <v>877.2105568248483</v>
@@ -6250,28 +6250,28 @@
         <v>2676.55532870389</v>
       </c>
       <c r="R26" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="S26" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="T26" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="U26" t="n">
-        <v>2366.102560769985</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.102560769985</v>
+        <v>2344.703589792254</v>
       </c>
       <c r="W26" t="n">
-        <v>2324.210849061581</v>
+        <v>1990.632764539169</v>
       </c>
       <c r="X26" t="n">
-        <v>1949.603173171512</v>
+        <v>1616.025088649099</v>
       </c>
       <c r="Y26" t="n">
-        <v>1559.010171402586</v>
+        <v>1225.432086880174</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.4794979670856</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C27" t="n">
         <v>806.7263828889031</v>
@@ -6305,25 +6305,25 @@
         <v>53.5311065740778</v>
       </c>
       <c r="J27" t="n">
-        <v>53.5311065740778</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K27" t="n">
-        <v>309.7001854454656</v>
+        <v>385.5055637579835</v>
       </c>
       <c r="L27" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916226</v>
       </c>
       <c r="M27" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N27" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O27" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P27" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.55532870389</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>201.9903229106426</v>
+        <v>278.3116025085121</v>
       </c>
       <c r="C28" t="n">
-        <v>201.9903229106426</v>
+        <v>278.3116025085121</v>
       </c>
       <c r="D28" t="n">
-        <v>201.9903229106426</v>
+        <v>127.8009292615229</v>
       </c>
       <c r="E28" t="n">
-        <v>53.5311065740778</v>
+        <v>127.8009292615229</v>
       </c>
       <c r="F28" t="n">
-        <v>53.5311065740778</v>
+        <v>127.8009292615229</v>
       </c>
       <c r="G28" t="n">
         <v>53.5311065740778</v>
@@ -6414,22 +6414,22 @@
         <v>727.6944649328328</v>
       </c>
       <c r="T28" t="n">
-        <v>499.7021009827837</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="U28" t="n">
-        <v>457.4815866146216</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="V28" t="n">
-        <v>201.9903229106426</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="W28" t="n">
-        <v>201.9903229106426</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="X28" t="n">
-        <v>201.9903229106426</v>
+        <v>499.2698589406012</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.9903229106426</v>
+        <v>278.3116025085121</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1523.762317720254</v>
+        <v>1425.289796445485</v>
       </c>
       <c r="C29" t="n">
-        <v>1153.070301882938</v>
+        <v>1425.289796445485</v>
       </c>
       <c r="D29" t="n">
-        <v>1153.070301882938</v>
+        <v>1425.289796445485</v>
       </c>
       <c r="E29" t="n">
-        <v>766.0823869786072</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="F29" t="n">
-        <v>766.0823869786072</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G29" t="n">
         <v>380.9492113818482</v>
       </c>
       <c r="H29" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I29" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J29" t="n">
         <v>167.7421803733075</v>
       </c>
       <c r="K29" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L29" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M29" t="n">
         <v>1355.324135626645</v>
@@ -6484,31 +6484,31 @@
         <v>2526.389973845557</v>
       </c>
       <c r="Q29" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R29" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="S29" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="T29" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U29" t="n">
-        <v>2676.555328703891</v>
+        <v>2203.475131539051</v>
       </c>
       <c r="V29" t="n">
-        <v>2676.555328703891</v>
+        <v>2203.475131539051</v>
       </c>
       <c r="W29" t="n">
-        <v>2676.555328703891</v>
+        <v>2203.475131539051</v>
       </c>
       <c r="X29" t="n">
-        <v>2301.947652813821</v>
+        <v>2203.475131539051</v>
       </c>
       <c r="Y29" t="n">
-        <v>1911.354651044895</v>
+        <v>1812.882129770126</v>
       </c>
     </row>
     <row r="30">
@@ -6539,10 +6539,10 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I30" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J30" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K30" t="n">
         <v>239.7918714752596</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2321.868695541933</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="C31" t="n">
-        <v>2321.868695541933</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D31" t="n">
-        <v>2171.358022294944</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E31" t="n">
-        <v>2171.358022294944</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F31" t="n">
-        <v>2171.358022294944</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G31" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H31" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I31" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J31" t="n">
-        <v>2002.391970345136</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K31" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L31" t="n">
-        <v>2185.635887283475</v>
+        <v>236.7750235124169</v>
       </c>
       <c r="M31" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N31" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256791</v>
       </c>
       <c r="O31" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172127</v>
       </c>
       <c r="P31" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="Q31" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="R31" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="S31" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="T31" t="n">
-        <v>2448.562964753841</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="U31" t="n">
-        <v>2448.562964753841</v>
+        <v>478.0491914206854</v>
       </c>
       <c r="V31" t="n">
-        <v>2448.562964753841</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="W31" t="n">
-        <v>2448.562964753841</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="X31" t="n">
-        <v>2321.868695541933</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="Y31" t="n">
-        <v>2321.868695541933</v>
+        <v>222.5579277167064</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1292.587663280623</v>
+        <v>1523.762317720254</v>
       </c>
       <c r="C32" t="n">
-        <v>921.8956474433072</v>
+        <v>1153.070301882938</v>
       </c>
       <c r="D32" t="n">
-        <v>561.6888466810866</v>
+        <v>851.9269643880459</v>
       </c>
       <c r="E32" t="n">
-        <v>174.7009317767558</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="F32" t="n">
-        <v>174.7009317767558</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G32" t="n">
-        <v>174.7009317767558</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H32" t="n">
-        <v>174.7009317767558</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I32" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J32" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733071</v>
       </c>
       <c r="K32" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632925</v>
       </c>
       <c r="L32" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248478</v>
       </c>
       <c r="M32" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N32" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O32" t="n">
-        <v>2223.65047400805</v>
+        <v>2223.650474008049</v>
       </c>
       <c r="P32" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q32" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R32" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="S32" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="T32" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="U32" t="n">
-        <v>2366.102560769986</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="V32" t="n">
-        <v>2034.25082185835</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="W32" t="n">
-        <v>1680.179996605264</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="X32" t="n">
-        <v>1680.179996605264</v>
+        <v>2301.94765281382</v>
       </c>
       <c r="Y32" t="n">
-        <v>1680.179996605264</v>
+        <v>1911.354651044895</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C33" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D33" t="n">
-        <v>659.1380762478473</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E33" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G33" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H33" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I33" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J33" t="n">
         <v>129.3364848865957</v>
       </c>
       <c r="K33" t="n">
-        <v>385.5055637579836</v>
+        <v>385.5055637579835</v>
       </c>
       <c r="L33" t="n">
         <v>790.8061104916226</v>
@@ -6791,13 +6791,13 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N33" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O33" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P33" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q33" t="n">
         <v>2676.555328703891</v>
@@ -6824,7 +6824,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>278.3116025085121</v>
+        <v>359.1820328891704</v>
       </c>
       <c r="C34" t="n">
-        <v>109.2847813658835</v>
+        <v>359.1820328891704</v>
       </c>
       <c r="D34" t="n">
-        <v>109.2847813658835</v>
+        <v>359.1820328891704</v>
       </c>
       <c r="E34" t="n">
-        <v>109.2847813658835</v>
+        <v>359.1820328891704</v>
       </c>
       <c r="F34" t="n">
-        <v>109.2847813658835</v>
+        <v>359.1820328891704</v>
       </c>
       <c r="G34" t="n">
-        <v>109.2847813658835</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="H34" t="n">
-        <v>53.53110657407781</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I34" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J34" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K34" t="n">
-        <v>109.4344173802943</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L34" t="n">
         <v>236.7750235124169</v>
@@ -6888,22 +6888,22 @@
         <v>727.6944649328328</v>
       </c>
       <c r="T34" t="n">
-        <v>727.6944649328328</v>
+        <v>499.7021009827837</v>
       </c>
       <c r="U34" t="n">
-        <v>727.6944649328328</v>
+        <v>359.1820328891704</v>
       </c>
       <c r="V34" t="n">
-        <v>727.6944649328328</v>
+        <v>359.1820328891704</v>
       </c>
       <c r="W34" t="n">
-        <v>727.6944649328328</v>
+        <v>359.1820328891704</v>
       </c>
       <c r="X34" t="n">
-        <v>499.2698589406012</v>
+        <v>359.1820328891704</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.3116025085121</v>
+        <v>359.1820328891704</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1005.989915720306</v>
+        <v>1253.295455993386</v>
       </c>
       <c r="C35" t="n">
-        <v>1005.989915720306</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="D35" t="n">
-        <v>1005.989915720306</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E35" t="n">
-        <v>619.0020008159752</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F35" t="n">
-        <v>207.594057906338</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G35" t="n">
-        <v>207.594057906338</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H35" t="n">
-        <v>207.594057906338</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I35" t="n">
         <v>53.5311065740778</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733071</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632925</v>
       </c>
       <c r="L35" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248478</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
@@ -6964,25 +6964,25 @@
         <v>2676.55532870389</v>
       </c>
       <c r="S35" t="n">
-        <v>2500.076526173013</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="T35" t="n">
-        <v>2280.903805862203</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="U35" t="n">
-        <v>2026.996329008174</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="V35" t="n">
-        <v>1768.189924935018</v>
+        <v>2090.796112938226</v>
       </c>
       <c r="W35" t="n">
-        <v>1768.189924935018</v>
+        <v>2015.495465208098</v>
       </c>
       <c r="X35" t="n">
-        <v>1393.582249044948</v>
+        <v>1640.887789318027</v>
       </c>
       <c r="Y35" t="n">
-        <v>1393.582249044948</v>
+        <v>1640.887789318027</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.5311065740778</v>
       </c>
       <c r="J36" t="n">
-        <v>129.3364848865957</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K36" t="n">
-        <v>385.5055637579835</v>
+        <v>239.7918714752591</v>
       </c>
       <c r="L36" t="n">
-        <v>790.8061104916226</v>
+        <v>645.0924182088982</v>
       </c>
       <c r="M36" t="n">
-        <v>1316.572925812729</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N36" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O36" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P36" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q36" t="n">
         <v>2676.55532870389</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>251.2449447967647</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="C37" t="n">
-        <v>251.2449447967647</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D37" t="n">
-        <v>251.2449447967647</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E37" t="n">
-        <v>251.2449447967647</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F37" t="n">
-        <v>103.609569635346</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G37" t="n">
-        <v>103.609569635346</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H37" t="n">
         <v>53.5311065740778</v>
@@ -7125,22 +7125,22 @@
         <v>727.6944649328328</v>
       </c>
       <c r="T37" t="n">
-        <v>727.6944649328328</v>
+        <v>598.0047711744361</v>
       </c>
       <c r="U37" t="n">
-        <v>727.6944649328328</v>
+        <v>598.0047711744361</v>
       </c>
       <c r="V37" t="n">
-        <v>472.2032012288539</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W37" t="n">
-        <v>472.2032012288539</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="X37" t="n">
-        <v>472.2032012288539</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="Y37" t="n">
-        <v>251.2449447967647</v>
+        <v>53.5311065740778</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>188.2807538598171</v>
+        <v>1679.197273299514</v>
       </c>
       <c r="C38" t="n">
-        <v>53.53110657407781</v>
+        <v>1308.505257462198</v>
       </c>
       <c r="D38" t="n">
-        <v>53.53110657407781</v>
+        <v>1308.505257462198</v>
       </c>
       <c r="E38" t="n">
-        <v>53.53110657407781</v>
+        <v>1308.505257462198</v>
       </c>
       <c r="F38" t="n">
-        <v>53.53110657407781</v>
+        <v>897.0973145525604</v>
       </c>
       <c r="G38" t="n">
-        <v>53.53110657407781</v>
+        <v>479.4329238802054</v>
       </c>
       <c r="H38" t="n">
-        <v>53.53110657407781</v>
+        <v>152.014819072435</v>
       </c>
       <c r="I38" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J38" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M38" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N38" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O38" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P38" t="n">
         <v>2526.389973845557</v>
@@ -7201,25 +7201,25 @@
         <v>2676.555328703891</v>
       </c>
       <c r="S38" t="n">
-        <v>2500.076526173014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T38" t="n">
-        <v>2280.903805862204</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U38" t="n">
-        <v>2026.996329008175</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="V38" t="n">
-        <v>1695.144590096539</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="W38" t="n">
-        <v>1341.073764843454</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="X38" t="n">
-        <v>966.4660889533836</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="Y38" t="n">
-        <v>575.8730871844585</v>
+        <v>2066.789606624155</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C39" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D39" t="n">
         <v>659.1380762478473</v>
       </c>
       <c r="E39" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F39" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G39" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H39" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I39" t="n">
         <v>53.53110657407781</v>
@@ -7259,10 +7259,10 @@
         <v>385.5055637579836</v>
       </c>
       <c r="L39" t="n">
-        <v>645.0924182088986</v>
+        <v>790.8061104916226</v>
       </c>
       <c r="M39" t="n">
-        <v>1170.859233530005</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N39" t="n">
         <v>1725.940263988108</v>
@@ -7280,19 +7280,19 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S39" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X39" t="n">
         <v>1352.250484864996</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.7120640364536</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C40" t="n">
-        <v>438.7120640364536</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D40" t="n">
-        <v>438.7120640364536</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E40" t="n">
-        <v>438.7120640364536</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F40" t="n">
-        <v>380.2569451738162</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G40" t="n">
-        <v>211.290893224009</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H40" t="n">
         <v>53.53110657407781</v>
@@ -7338,46 +7338,46 @@
         <v>109.4344173802943</v>
       </c>
       <c r="L40" t="n">
-        <v>236.775023512417</v>
+        <v>236.7750235124169</v>
       </c>
       <c r="M40" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N40" t="n">
-        <v>528.1833689256792</v>
+        <v>528.1833689256791</v>
       </c>
       <c r="O40" t="n">
-        <v>648.2118474172128</v>
+        <v>648.2118474172127</v>
       </c>
       <c r="P40" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="Q40" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="R40" t="n">
-        <v>727.6944649328329</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="S40" t="n">
-        <v>727.6944649328329</v>
+        <v>513.8853266532924</v>
       </c>
       <c r="T40" t="n">
-        <v>727.6944649328329</v>
+        <v>513.8853266532924</v>
       </c>
       <c r="U40" t="n">
-        <v>727.6944649328329</v>
+        <v>513.8853266532924</v>
       </c>
       <c r="V40" t="n">
-        <v>727.6944649328329</v>
+        <v>513.8853266532924</v>
       </c>
       <c r="W40" t="n">
-        <v>438.7120640364536</v>
+        <v>224.9029257569131</v>
       </c>
       <c r="X40" t="n">
-        <v>438.7120640364536</v>
+        <v>224.9029257569131</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.7120640364536</v>
+        <v>224.9029257569131</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1284.528473763577</v>
+        <v>1290.738224109501</v>
       </c>
       <c r="C41" t="n">
-        <v>1284.528473763577</v>
+        <v>1290.738224109501</v>
       </c>
       <c r="D41" t="n">
-        <v>1284.528473763577</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E41" t="n">
-        <v>1284.528473763577</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F41" t="n">
-        <v>873.1205308539402</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G41" t="n">
-        <v>455.4561401815852</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H41" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I41" t="n">
         <v>53.53110657407781</v>
@@ -7441,22 +7441,22 @@
         <v>2443.531235093138</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.358514782327</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="U41" t="n">
-        <v>1970.451037928299</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="V41" t="n">
-        <v>1638.599299016663</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="W41" t="n">
-        <v>1284.528473763577</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="X41" t="n">
-        <v>1284.528473763577</v>
+        <v>2068.923559203068</v>
       </c>
       <c r="Y41" t="n">
-        <v>1284.528473763577</v>
+        <v>1678.330557434143</v>
       </c>
     </row>
     <row r="42">
@@ -7478,10 +7478,10 @@
         <v>501.528547250702</v>
       </c>
       <c r="F42" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G42" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H42" t="n">
         <v>115.4714096068661</v>
@@ -7502,13 +7502,13 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N42" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O42" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P42" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q42" t="n">
         <v>2676.555328703891</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2002.391970345136</v>
+        <v>222.5579277167064</v>
       </c>
       <c r="C43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J43" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K43" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L43" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M43" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N43" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O43" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P43" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R43" t="n">
-        <v>2676.555328703891</v>
+        <v>693.3685486716513</v>
       </c>
       <c r="S43" t="n">
-        <v>2676.555328703891</v>
+        <v>693.3685486716513</v>
       </c>
       <c r="T43" t="n">
-        <v>2448.562964753841</v>
+        <v>693.3685486716513</v>
       </c>
       <c r="U43" t="n">
-        <v>2159.655062476355</v>
+        <v>404.4606463941649</v>
       </c>
       <c r="V43" t="n">
-        <v>2002.391970345136</v>
+        <v>404.4606463941649</v>
       </c>
       <c r="W43" t="n">
-        <v>2002.391970345136</v>
+        <v>404.4606463941649</v>
       </c>
       <c r="X43" t="n">
-        <v>2002.391970345136</v>
+        <v>404.4606463941649</v>
       </c>
       <c r="Y43" t="n">
-        <v>2002.391970345136</v>
+        <v>404.4606463941649</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>578.2860737436538</v>
+        <v>1523.762317720254</v>
       </c>
       <c r="C44" t="n">
-        <v>207.594057906338</v>
+        <v>1153.070301882938</v>
       </c>
       <c r="D44" t="n">
-        <v>207.594057906338</v>
+        <v>1153.070301882938</v>
       </c>
       <c r="E44" t="n">
-        <v>207.594057906338</v>
+        <v>766.0823869786072</v>
       </c>
       <c r="F44" t="n">
-        <v>207.594057906338</v>
+        <v>354.67444406897</v>
       </c>
       <c r="G44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J44" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K44" t="n">
         <v>461.1915665632927</v>
@@ -7672,28 +7672,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R44" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S44" t="n">
-        <v>2443.531235093138</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.358514782327</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="U44" t="n">
-        <v>1970.451037928299</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="V44" t="n">
-        <v>1638.599299016663</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="W44" t="n">
-        <v>1284.528473763577</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="X44" t="n">
-        <v>909.9207978735074</v>
+        <v>2301.947652813821</v>
       </c>
       <c r="Y44" t="n">
-        <v>578.2860737436538</v>
+        <v>1911.354651044895</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N45" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O45" t="n">
         <v>2166.102944282447</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.6944649328329</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="C46" t="n">
-        <v>727.6944649328329</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="D46" t="n">
-        <v>727.6944649328329</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="E46" t="n">
-        <v>710.522428732839</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="F46" t="n">
-        <v>562.8870535714203</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="G46" t="n">
-        <v>393.9210016216131</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="H46" t="n">
-        <v>236.1612149716819</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I46" t="n">
-        <v>99.47634060639648</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J46" t="n">
         <v>53.53110657407781</v>
@@ -7833,25 +7833,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S46" t="n">
-        <v>727.6944649328329</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="T46" t="n">
-        <v>727.6944649328329</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="U46" t="n">
-        <v>727.6944649328329</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="V46" t="n">
-        <v>727.6944649328329</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="W46" t="n">
-        <v>727.6944649328329</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="X46" t="n">
-        <v>727.6944649328329</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="Y46" t="n">
-        <v>727.6944649328329</v>
+        <v>347.9757675892944</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L3" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>183.119933412272</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N3" t="n">
-        <v>182.2551889458879</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>193.2283579979712</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
         <v>184.8220668936099</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>181.0214800721751</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8221,22 +8221,22 @@
         <v>268.7846244334939</v>
       </c>
       <c r="L5" t="n">
-        <v>281.8794956880669</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5875773965909</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N5" t="n">
-        <v>277.8747566713141</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O5" t="n">
-        <v>278.5427758007825</v>
+        <v>272.2934545697612</v>
       </c>
       <c r="P5" t="n">
         <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8297,22 +8297,22 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4026440923293</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>189.2875399500152</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>192.7777027386057</v>
+        <v>190.5879241662971</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O6" t="n">
         <v>193.2283579979712</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8458,16 +8458,16 @@
         <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>348.0228090670795</v>
+        <v>343.2490492904611</v>
       </c>
       <c r="M8" t="n">
-        <v>342.7381318679329</v>
+        <v>342.7381318679344</v>
       </c>
       <c r="N8" t="n">
-        <v>341.8282914780181</v>
+        <v>341.8282914780197</v>
       </c>
       <c r="O8" t="n">
-        <v>337.7225508308666</v>
+        <v>342.4963106074881</v>
       </c>
       <c r="P8" t="n">
         <v>225.4521708613878</v>
@@ -8534,22 +8534,22 @@
         <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>252.5459574713419</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>253.2410747567209</v>
       </c>
       <c r="M9" t="n">
-        <v>251.95747776869</v>
+        <v>256.7312375453114</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>246.2087237525935</v>
       </c>
       <c r="O9" t="n">
-        <v>257.1818928046753</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>248.7756017003139</v>
+        <v>244.0018419236956</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946166</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8786,10 +8786,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>184.015731625208</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895194</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9017,7 +9017,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569681</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>54.56358754946164</v>
+        <v>54.56358754946166</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9251,7 +9251,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>413.7188077442362</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
         <v>498.5160693172957</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895194</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>54.56358754946166</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>427.901610761532</v>
+        <v>351.3305215569681</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.29483148495635</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>54.56358754946166</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569681</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,10 +10190,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>54.56358754946166</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>204.4293879373181</v>
+        <v>127.8582987327546</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.29483148495635</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946166</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>204.4293879373176</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.29483148495589</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10907,13 +10907,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
-        <v>238.4884113552702</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11077,7 +11077,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
-        <v>334.6706564983421</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.29483148495633</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11387,10 +11387,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O45" t="n">
-        <v>262.4312642874717</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H11" t="n">
-        <v>85.78397579144824</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>152.5223218189376</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U11" t="n">
         <v>251.3684020854885</v>
@@ -23320,13 +23320,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>35.4545401338018</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23433,13 +23433,13 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H13" t="n">
-        <v>27.05487648837035</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>28.41377105177701</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T13" t="n">
-        <v>225.7124403105487</v>
+        <v>130.4021156775082</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>376.3292731561982</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>152.4897274390239</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177701</v>
       </c>
       <c r="R16" t="n">
         <v>145.8195582697328</v>
@@ -23712,13 +23712,13 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>63.55988591232546</v>
+        <v>90.35587704695547</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4877467656314</v>
+        <v>173.6078562403777</v>
       </c>
       <c r="H17" t="n">
-        <v>15.63165671540507</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I17" t="n">
         <v>152.5223218189376</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T17" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23901,19 +23901,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>134.8057431772024</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>135.3180256216326</v>
       </c>
       <c r="J19" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199549</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177702</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>211.671046896745</v>
       </c>
       <c r="T19" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.0188232547115</v>
@@ -23952,13 +23952,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>216.3432106248389</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>78.76046230719794</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>101.981205894827</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24180,19 +24180,19 @@
         <v>211.671046896745</v>
       </c>
       <c r="T22" t="n">
-        <v>204.7039794658324</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>157.6260264338987</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>198.4926700073895</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>236.705533509302</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24417,19 +24417,19 @@
         <v>211.671046896745</v>
       </c>
       <c r="T25" t="n">
-        <v>70.52365235510604</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0188232547115</v>
+        <v>157.6260264338988</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>370.5510714787868</v>
       </c>
       <c r="G26" t="n">
         <v>413.4877467656314</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S26" t="n">
         <v>174.714014505568</v>
@@ -24499,13 +24499,13 @@
         <v>216.980993107702</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>309.0573224092348</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2763914303091</v>
+        <v>93.74926696973851</v>
       </c>
       <c r="H28" t="n">
         <v>156.1821887834319</v>
@@ -24654,22 +24654,22 @@
         <v>211.671046896745</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U28" t="n">
-        <v>244.2205140302311</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>170.0024667884599</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>32.20590292484002</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>174.714014505568</v>
       </c>
       <c r="T29" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24745,7 +24745,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
         <v>146.9746241731992</v>
@@ -24852,7 +24852,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H31" t="n">
         <v>156.1821887834319</v>
@@ -24891,19 +24891,19 @@
         <v>211.671046896745</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0188232547115</v>
+        <v>38.87000247768557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>100.7130334125201</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>58.47282863465557</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.4877467656314</v>
@@ -24937,7 +24937,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
-        <v>32.56419486828638</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S32" t="n">
         <v>174.714014505568</v>
@@ -24973,19 +24973,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -25089,13 +25089,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>100.9860507395443</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I34" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>45.48578169199548</v>
@@ -25128,10 +25128,10 @@
         <v>211.671046896745</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0188232547115</v>
+        <v>146.9039558420344</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25140,10 +25140,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>55.9798381690774</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>72.31488149009419</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>275.9824757477278</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H37" t="n">
-        <v>106.6045103527763</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I37" t="n">
         <v>135.3180256216325</v>
@@ -25365,7 +25365,7 @@
         <v>211.671046896745</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7124403105487</v>
+        <v>97.31964348973588</v>
       </c>
       <c r="U37" t="n">
         <v>286.0188232547115</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>233.5829448660608</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
@@ -25402,16 +25402,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>152.5223218189376</v>
+        <v>55.02344644556398</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907738</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>10.4255904996769</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25560,13 +25560,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>88.28845373579348</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I40" t="n">
         <v>135.3180256216325</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177701</v>
       </c>
       <c r="R40" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.7124403105487</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>335.6693323959893</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>78.76046230719798</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -25833,19 +25833,19 @@
         <v>28.413771051777</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8195582697328</v>
+        <v>111.836901171163</v>
       </c>
       <c r="S43" t="n">
         <v>211.671046896745</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.24588985703227</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4877467656314</v>
+        <v>115.3558426456881</v>
       </c>
       <c r="H44" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>58.3686948626808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,13 +26031,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>129.9743083352052</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S46" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7124403105487</v>
+        <v>61.46197683719058</v>
       </c>
       <c r="U46" t="n">
         <v>286.0188232547115</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>929694.3143209392</v>
+        <v>929694.3143209394</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>684662.5828688488</v>
+        <v>684662.5828688489</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684662.5828688487</v>
+        <v>684662.5828688489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>684662.5828688489</v>
+        <v>684662.5828688488</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684662.5828688489</v>
+        <v>684662.5828688488</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684662.5828688489</v>
+        <v>684662.5828688488</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>684662.5828688488</v>
+        <v>684662.5828688489</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684662.5828688489</v>
+        <v>684662.5828688487</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>684662.5828688487</v>
+        <v>684662.5828688488</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549395.6008150823</v>
+        <v>549395.6008150822</v>
       </c>
       <c r="C2" t="n">
+        <v>549395.600815082</v>
+      </c>
+      <c r="D2" t="n">
         <v>549395.6008150822</v>
-      </c>
-      <c r="D2" t="n">
-        <v>549395.6008150823</v>
       </c>
       <c r="E2" t="n">
         <v>383751.3645599863</v>
@@ -26331,10 +26331,10 @@
         <v>383751.3645599862</v>
       </c>
       <c r="H2" t="n">
+        <v>383751.3645599864</v>
+      </c>
+      <c r="I2" t="n">
         <v>383751.3645599863</v>
-      </c>
-      <c r="I2" t="n">
-        <v>383751.3645599865</v>
       </c>
       <c r="J2" t="n">
         <v>383751.3645599863</v>
@@ -26346,16 +26346,16 @@
         <v>383751.3645599863</v>
       </c>
       <c r="M2" t="n">
+        <v>383751.3645599863</v>
+      </c>
+      <c r="N2" t="n">
+        <v>383751.3645599863</v>
+      </c>
+      <c r="O2" t="n">
         <v>383751.3645599864</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>383751.3645599862</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383751.3645599865</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383751.3645599863</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18162.66782107245</v>
+        <v>18162.66782107244</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19865.88651700648</v>
+        <v>19865.88651700699</v>
       </c>
       <c r="E3" t="n">
-        <v>437706.8631331108</v>
+        <v>437706.8631331103</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14180.32501313448</v>
+        <v>14180.32501313451</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16186.06407776354</v>
+        <v>16186.06407776395</v>
       </c>
       <c r="M3" t="n">
-        <v>137308.4827571048</v>
+        <v>137308.4827571044</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>374943.7120117279</v>
+      </c>
+      <c r="C4" t="n">
         <v>374943.7120117278</v>
       </c>
-      <c r="C4" t="n">
-        <v>374943.7120117279</v>
-      </c>
       <c r="D4" t="n">
-        <v>363886.4488374117</v>
+        <v>363886.4488374114</v>
       </c>
       <c r="E4" t="n">
-        <v>74012.37935770948</v>
+        <v>74012.37935770946</v>
       </c>
       <c r="F4" t="n">
-        <v>74012.37935770948</v>
+        <v>74012.37935770946</v>
       </c>
       <c r="G4" t="n">
         <v>74012.37935770946</v>
@@ -26438,7 +26438,7 @@
         <v>74012.37935770946</v>
       </c>
       <c r="I4" t="n">
-        <v>74012.37935770948</v>
+        <v>74012.37935770946</v>
       </c>
       <c r="J4" t="n">
         <v>74012.37935770946</v>
@@ -26447,16 +26447,16 @@
         <v>74012.37935770946</v>
       </c>
       <c r="L4" t="n">
-        <v>74012.37935770948</v>
+        <v>74012.37935770946</v>
       </c>
       <c r="M4" t="n">
         <v>74012.37935770946</v>
       </c>
       <c r="N4" t="n">
-        <v>74012.37935770948</v>
+        <v>74012.37935770946</v>
       </c>
       <c r="O4" t="n">
-        <v>74012.37935770948</v>
+        <v>74012.37935770946</v>
       </c>
       <c r="P4" t="n">
         <v>74012.37935770946</v>
@@ -26475,16 +26475,16 @@
         <v>36922.77879560999</v>
       </c>
       <c r="D5" t="n">
-        <v>40811.15371185759</v>
+        <v>40811.15371185768</v>
       </c>
       <c r="E5" t="n">
         <v>48096.6413165955</v>
       </c>
       <c r="F5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.6413165955</v>
       </c>
       <c r="G5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659549</v>
       </c>
       <c r="H5" t="n">
         <v>48096.6413165955</v>
@@ -26505,7 +26505,7 @@
         <v>48096.6413165955</v>
       </c>
       <c r="N5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.6413165955</v>
       </c>
       <c r="O5" t="n">
         <v>48096.64131659551</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119366.4421866722</v>
+        <v>119366.442186672</v>
       </c>
       <c r="C6" t="n">
-        <v>137529.1100077444</v>
+        <v>137529.1100077442</v>
       </c>
       <c r="D6" t="n">
-        <v>124832.1117488066</v>
+        <v>124832.1117488061</v>
       </c>
       <c r="E6" t="n">
-        <v>-176064.5192474294</v>
+        <v>-182199.4909605807</v>
       </c>
       <c r="F6" t="n">
-        <v>261642.3438856814</v>
+        <v>255507.3721725297</v>
       </c>
       <c r="G6" t="n">
-        <v>261642.3438856812</v>
+        <v>255507.3721725295</v>
       </c>
       <c r="H6" t="n">
-        <v>261642.3438856814</v>
+        <v>255507.3721725298</v>
       </c>
       <c r="I6" t="n">
-        <v>261642.3438856815</v>
+        <v>255507.3721725297</v>
       </c>
       <c r="J6" t="n">
-        <v>247462.0188725468</v>
+        <v>241327.0471593952</v>
       </c>
       <c r="K6" t="n">
-        <v>261642.3438856814</v>
+        <v>255507.3721725297</v>
       </c>
       <c r="L6" t="n">
-        <v>245456.2798079178</v>
+        <v>239321.3080947657</v>
       </c>
       <c r="M6" t="n">
-        <v>124333.8611285767</v>
+        <v>118198.8894154252</v>
       </c>
       <c r="N6" t="n">
-        <v>261642.3438856812</v>
+        <v>255507.3721725297</v>
       </c>
       <c r="O6" t="n">
-        <v>261642.3438856815</v>
+        <v>255507.3721725298</v>
       </c>
       <c r="P6" t="n">
-        <v>261642.3438856813</v>
+        <v>255507.3721725295</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>340.0458862521269</v>
       </c>
       <c r="F3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521269</v>
       </c>
       <c r="G3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521269</v>
       </c>
       <c r="H3" t="n">
         <v>340.0458862521269</v>
@@ -26773,7 +26773,7 @@
         <v>340.0458862521269</v>
       </c>
       <c r="N3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521269</v>
       </c>
       <c r="O3" t="n">
         <v>340.045886252127</v>
@@ -26795,31 +26795,31 @@
         <v>54.19701966463789</v>
       </c>
       <c r="D4" t="n">
-        <v>118.1505544713419</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="E4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="F4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="G4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="H4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="I4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="J4" t="n">
         <v>669.1388321759725</v>
       </c>
       <c r="K4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="L4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="M4" t="n">
         <v>669.1388321759725</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.95353480670406</v>
+        <v>63.95353480670568</v>
       </c>
       <c r="E4" t="n">
-        <v>550.9882777046307</v>
+        <v>550.988277704629</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463776</v>
+        <v>54.19701966463788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.95353480670406</v>
+        <v>63.95353480670568</v>
       </c>
       <c r="M4" t="n">
-        <v>550.9882777046306</v>
+        <v>550.988277704629</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.95353480670406</v>
+        <v>63.95353480670568</v>
       </c>
       <c r="M4" t="n">
-        <v>550.9882777046307</v>
+        <v>550.988277704629</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
         <v>151.0272882034861</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>116.9219937991982</v>
+        <v>116.2627166646358</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>151.6679320589013</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>168.7680975317825</v>
       </c>
       <c r="U2" t="n">
-        <v>197.2807439119065</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>117.6353906897318</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -27514,19 +27514,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>176.9204421465882</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>177.7117113750172</v>
       </c>
       <c r="W3" t="n">
-        <v>195.7923270853622</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>150.2646099438404</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>149.4741317539481</v>
       </c>
     </row>
     <row r="4">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.7616238429892</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C4" t="n">
-        <v>113.1395332665644</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
-        <v>94.80854684988147</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E4" t="n">
-        <v>92.77760450856128</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
         <v>146.1590214098045</v>
@@ -27560,10 +27560,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>34.64182526314104</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>25.56368021121028</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>228.3324659915077</v>
+        <v>226.7848080616464</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -27627,7 +27627,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>353.096843815903</v>
+        <v>375.0711710983211</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>168.7680975317825</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>197.2807439119065</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>296.3330973359167</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>353.8051022344537</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>101.8364140425359</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>89.3092124189114</v>
       </c>
       <c r="G6" t="n">
-        <v>81.82619054040443</v>
+        <v>88.28647528442929</v>
       </c>
       <c r="H6" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>38.76680854485863</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.49796009645333</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>114.7645942410065</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
@@ -27779,16 +27779,16 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0055665145194</v>
+        <v>132.6834988668247</v>
       </c>
       <c r="E7" t="n">
-        <v>146.9746241731992</v>
+        <v>92.77760450856128</v>
       </c>
       <c r="F7" t="n">
-        <v>146.1590214098045</v>
+        <v>91.9620017451666</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8895889301081</v>
+        <v>113.6925692654702</v>
       </c>
       <c r="H7" t="n">
         <v>161.6340720089168</v>
@@ -27824,16 +27824,16 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
-        <v>174.1354463268698</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8552507264263</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
-        <v>236.6142834192445</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
         <v>286.0925768874155</v>
@@ -27870,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>256.8848010287282</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.70026822953514</v>
+        <v>23.70026822953355</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>87.71439725219571</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>104.8145627250768</v>
       </c>
       <c r="U8" t="n">
-        <v>133.3272091052025</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>268.6117375065684</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>252.7110446598275</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>47.2215711390013</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>66.95857554904163</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
@@ -27952,7 +27952,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>50.81105943430245</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>157.3634922851317</v>
+        <v>80.23197743692515</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -27994,13 +27994,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>131.8387922786581</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>85.5205969472425</v>
       </c>
     </row>
     <row r="10">
@@ -28013,10 +28013,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C10" t="n">
-        <v>167.3365529312023</v>
+        <v>49.18599845985881</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>88.24299434425456</v>
       </c>
       <c r="E10" t="n">
         <v>146.9746241731992</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28064,7 +28064,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>129.1800392257475</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -32001,7 +32001,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K14" t="n">
-        <v>173.8898970988704</v>
+        <v>173.8898970988703</v>
       </c>
       <c r="L14" t="n">
         <v>215.7257937476685</v>
@@ -32010,7 +32010,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N14" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605332</v>
       </c>
       <c r="O14" t="n">
         <v>230.3272615769369</v>
@@ -32022,13 +32022,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R14" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179968</v>
       </c>
       <c r="S14" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797123</v>
       </c>
       <c r="T14" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718333</v>
       </c>
       <c r="U14" t="n">
         <v>0.1093614910559603</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479712</v>
       </c>
       <c r="H15" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879091</v>
       </c>
       <c r="I15" t="n">
-        <v>25.1826434630113</v>
+        <v>25.18264346301129</v>
       </c>
       <c r="J15" t="n">
-        <v>69.10309845053838</v>
+        <v>69.10309845053837</v>
       </c>
       <c r="K15" t="n">
-        <v>118.1082018315525</v>
+        <v>118.1082018315524</v>
       </c>
       <c r="L15" t="n">
-        <v>158.8110528199203</v>
+        <v>158.8110528199202</v>
       </c>
       <c r="M15" t="n">
         <v>185.3250080074092</v>
@@ -32092,16 +32092,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O15" t="n">
-        <v>174.0232942596145</v>
+        <v>174.0232942596144</v>
       </c>
       <c r="P15" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662173</v>
       </c>
       <c r="R15" t="n">
-        <v>45.41216571495389</v>
+        <v>45.41216571495388</v>
       </c>
       <c r="S15" t="n">
         <v>13.58579554979016</v>
@@ -32147,37 +32147,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989174</v>
       </c>
       <c r="H16" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484924</v>
       </c>
       <c r="I16" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J16" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578345</v>
       </c>
       <c r="K16" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L16" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192269</v>
       </c>
       <c r="M16" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484301</v>
       </c>
       <c r="N16" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741075</v>
       </c>
       <c r="O16" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521428</v>
       </c>
       <c r="P16" t="n">
-        <v>74.16345033931631</v>
+        <v>74.1634503393163</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407116</v>
       </c>
       <c r="R16" t="n">
         <v>27.5715894000495</v>
@@ -32229,28 +32229,28 @@
         <v>1.367018638199504</v>
       </c>
       <c r="H17" t="n">
-        <v>13.99997962846068</v>
+        <v>13.99997962846067</v>
       </c>
       <c r="I17" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918643</v>
       </c>
       <c r="J17" t="n">
         <v>116.0239981438853</v>
       </c>
       <c r="K17" t="n">
-        <v>173.8898970988704</v>
+        <v>173.8898970988703</v>
       </c>
       <c r="L17" t="n">
-        <v>215.7257937476685</v>
+        <v>215.7257937476684</v>
       </c>
       <c r="M17" t="n">
-        <v>240.0365114547489</v>
+        <v>240.0365114547488</v>
       </c>
       <c r="N17" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605332</v>
       </c>
       <c r="O17" t="n">
-        <v>230.3272615769369</v>
+        <v>230.3272615769368</v>
       </c>
       <c r="P17" t="n">
         <v>196.5789889463866</v>
@@ -32259,13 +32259,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R17" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179966</v>
       </c>
       <c r="S17" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797123</v>
       </c>
       <c r="T17" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718332</v>
       </c>
       <c r="U17" t="n">
         <v>0.1093614910559603</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.731419453447971</v>
       </c>
       <c r="H18" t="n">
-        <v>7.063972089879092</v>
+        <v>7.06397208987909</v>
       </c>
       <c r="I18" t="n">
-        <v>25.1826434630113</v>
+        <v>25.18264346301128</v>
       </c>
       <c r="J18" t="n">
-        <v>69.10309845053838</v>
+        <v>69.10309845053837</v>
       </c>
       <c r="K18" t="n">
-        <v>118.1082018315525</v>
+        <v>118.1082018315524</v>
       </c>
       <c r="L18" t="n">
-        <v>158.8110528199203</v>
+        <v>158.8110528199202</v>
       </c>
       <c r="M18" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074091</v>
       </c>
       <c r="N18" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175931</v>
       </c>
       <c r="O18" t="n">
-        <v>174.0232942596145</v>
+        <v>174.0232942596144</v>
       </c>
       <c r="P18" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079726</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662171</v>
       </c>
       <c r="R18" t="n">
-        <v>45.41216571495389</v>
+        <v>45.41216571495386</v>
       </c>
       <c r="S18" t="n">
-        <v>13.58579554979016</v>
+        <v>13.58579554979015</v>
       </c>
       <c r="T18" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204759</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473495</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989172</v>
       </c>
       <c r="H19" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484923</v>
       </c>
       <c r="I19" t="n">
-        <v>18.44052117577109</v>
+        <v>18.44052117577108</v>
       </c>
       <c r="J19" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578344</v>
       </c>
       <c r="K19" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118328</v>
       </c>
       <c r="L19" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192268</v>
       </c>
       <c r="M19" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484299</v>
       </c>
       <c r="N19" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741073</v>
       </c>
       <c r="O19" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521427</v>
       </c>
       <c r="P19" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931628</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407116</v>
       </c>
       <c r="R19" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004949</v>
       </c>
       <c r="S19" t="n">
         <v>10.68636006467749</v>
       </c>
       <c r="T19" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959009</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266825</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K38" t="n">
-        <v>173.8898970988704</v>
+        <v>173.8898970988703</v>
       </c>
       <c r="L38" t="n">
         <v>215.7257937476685</v>
@@ -33906,7 +33906,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N38" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605332</v>
       </c>
       <c r="O38" t="n">
         <v>230.3272615769369</v>
@@ -33918,13 +33918,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R38" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179968</v>
       </c>
       <c r="S38" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797123</v>
       </c>
       <c r="T38" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718333</v>
       </c>
       <c r="U38" t="n">
         <v>0.1093614910559603</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479712</v>
       </c>
       <c r="H39" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879091</v>
       </c>
       <c r="I39" t="n">
-        <v>25.1826434630113</v>
+        <v>25.18264346301129</v>
       </c>
       <c r="J39" t="n">
-        <v>69.10309845053838</v>
+        <v>69.10309845053837</v>
       </c>
       <c r="K39" t="n">
-        <v>118.1082018315525</v>
+        <v>118.1082018315524</v>
       </c>
       <c r="L39" t="n">
-        <v>158.8110528199203</v>
+        <v>158.8110528199202</v>
       </c>
       <c r="M39" t="n">
         <v>185.3250080074092</v>
@@ -33988,16 +33988,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O39" t="n">
-        <v>174.0232942596145</v>
+        <v>174.0232942596144</v>
       </c>
       <c r="P39" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662173</v>
       </c>
       <c r="R39" t="n">
-        <v>45.41216571495389</v>
+        <v>45.41216571495388</v>
       </c>
       <c r="S39" t="n">
         <v>13.58579554979016</v>
@@ -34043,37 +34043,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989174</v>
       </c>
       <c r="H40" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484924</v>
       </c>
       <c r="I40" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J40" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578345</v>
       </c>
       <c r="K40" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L40" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192269</v>
       </c>
       <c r="M40" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484301</v>
       </c>
       <c r="N40" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741075</v>
       </c>
       <c r="O40" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521428</v>
       </c>
       <c r="P40" t="n">
-        <v>74.16345033931631</v>
+        <v>74.1634503393163</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407116</v>
       </c>
       <c r="R40" t="n">
         <v>27.5715894000495</v>
@@ -34780,25 +34780,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.53925033830414</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>54.19701966463789</v>
       </c>
       <c r="L5" t="n">
-        <v>52.00724109232928</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>54.19701966463789</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>52.00724109232928</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="M6" t="n">
-        <v>54.19701966463789</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>118.1505544713419</v>
+        <v>113.3767946947236</v>
       </c>
       <c r="M8" t="n">
-        <v>118.1505544713419</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="N8" t="n">
-        <v>118.1505544713419</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="O8" t="n">
-        <v>113.376794694722</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>118.1505544713419</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="M9" t="n">
-        <v>113.3767946947221</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>118.1505544713435</v>
       </c>
       <c r="O9" t="n">
-        <v>118.1505544713419</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>118.1505544713419</v>
+        <v>113.3767946947236</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.57108920456352</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>258.7566453246342</v>
@@ -35506,10 +35506,10 @@
         <v>444.6087679740798</v>
       </c>
       <c r="P12" t="n">
-        <v>193.0597202042087</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q12" t="n">
-        <v>175.3632011480338</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.6821766245795</v>
+        <v>151.6821766245794</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.57108920456352</v>
       </c>
       <c r="K15" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L15" t="n">
-        <v>409.3944916501405</v>
+        <v>409.3944916501404</v>
       </c>
       <c r="M15" t="n">
         <v>531.0775912334412</v>
       </c>
       <c r="N15" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933113</v>
       </c>
       <c r="O15" t="n">
         <v>444.6087679740798</v>
@@ -35746,7 +35746,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480338</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,13 +35816,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N16" t="n">
-        <v>148.0329607020487</v>
+        <v>148.0329607020486</v>
       </c>
       <c r="O16" t="n">
-        <v>121.2408873651854</v>
+        <v>121.2408873651853</v>
       </c>
       <c r="P16" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800014</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.3647210093227</v>
+        <v>115.3647210093228</v>
       </c>
       <c r="K17" t="n">
-        <v>296.4135214040257</v>
+        <v>296.4135214040256</v>
       </c>
       <c r="L17" t="n">
         <v>420.2212022843993</v>
       </c>
       <c r="M17" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907037</v>
       </c>
       <c r="N17" t="n">
         <v>475.0836175423206</v>
       </c>
       <c r="O17" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540474</v>
       </c>
       <c r="P17" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833407</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.6821766245795</v>
+        <v>151.6821766245794</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>258.7566453246342</v>
       </c>
       <c r="L18" t="n">
-        <v>409.3944916501405</v>
+        <v>409.3944916501404</v>
       </c>
       <c r="M18" t="n">
-        <v>460.4631326776775</v>
+        <v>531.0775912334411</v>
       </c>
       <c r="N18" t="n">
-        <v>560.6879095536389</v>
+        <v>560.6879095536387</v>
       </c>
       <c r="O18" t="n">
         <v>444.6087679740798</v>
@@ -35983,7 +35983,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q18" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334993</v>
       </c>
       <c r="L19" t="n">
         <v>128.626874880932</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3189033517516</v>
+        <v>146.3189033517515</v>
       </c>
       <c r="N19" t="n">
-        <v>148.0329607020487</v>
+        <v>148.0329607020486</v>
       </c>
       <c r="O19" t="n">
-        <v>121.2408873651854</v>
+        <v>121.2408873651853</v>
       </c>
       <c r="P19" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800012</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.57108920456352</v>
       </c>
       <c r="K21" t="n">
         <v>258.7566453246342</v>
@@ -36211,7 +36211,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N21" t="n">
-        <v>490.0734509978752</v>
+        <v>413.5023617933113</v>
       </c>
       <c r="O21" t="n">
         <v>444.6087679740798</v>
@@ -36448,7 +36448,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N24" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O24" t="n">
         <v>444.6087679740798</v>
@@ -36457,7 +36457,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.1776533877071</v>
+        <v>175.3632011480338</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.57108920456352</v>
       </c>
       <c r="K27" t="n">
         <v>258.7566453246342</v>
@@ -36685,7 +36685,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N27" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933113</v>
       </c>
       <c r="O27" t="n">
         <v>444.6087679740798</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480338</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.57108920456352</v>
       </c>
       <c r="K30" t="n">
-        <v>188.1421867688705</v>
+        <v>111.571097564307</v>
       </c>
       <c r="L30" t="n">
         <v>409.3944916501404</v>
@@ -37159,7 +37159,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N33" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O33" t="n">
         <v>444.6087679740798</v>
@@ -37168,7 +37168,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.1776533877071</v>
+        <v>175.3632011480338</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.57108920456352</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>258.7566453246342</v>
+        <v>188.1421867688701</v>
       </c>
       <c r="L36" t="n">
         <v>409.3944916501404</v>
@@ -37405,7 +37405,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.17765338770664</v>
+        <v>175.3632011480338</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q38" t="n">
-        <v>151.6821766245795</v>
+        <v>151.6821766245794</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.57108920456353</v>
+        <v>76.57108920456352</v>
       </c>
       <c r="K39" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L39" t="n">
-        <v>262.2089438898131</v>
+        <v>409.3944916501404</v>
       </c>
       <c r="M39" t="n">
         <v>531.0775912334412</v>
       </c>
       <c r="N39" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O39" t="n">
         <v>444.6087679740798</v>
@@ -37642,7 +37642,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.3632011480339</v>
+        <v>175.3632011480338</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37712,13 +37712,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N40" t="n">
-        <v>148.0329607020487</v>
+        <v>148.0329607020486</v>
       </c>
       <c r="O40" t="n">
-        <v>121.2408873651854</v>
+        <v>121.2408873651853</v>
       </c>
       <c r="P40" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800014</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>475.0836175423206</v>
       </c>
       <c r="O41" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540476</v>
       </c>
       <c r="P41" t="n">
-        <v>305.7974745833409</v>
+        <v>305.7974745833408</v>
       </c>
       <c r="Q41" t="n">
         <v>151.6821766245795</v>
@@ -37870,7 +37870,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N42" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O42" t="n">
         <v>444.6087679740798</v>
@@ -37879,7 +37879,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.1776533877071</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>115.3647210093227</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K44" t="n">
         <v>296.4135214040257</v>
@@ -38107,10 +38107,10 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N45" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O45" t="n">
-        <v>297.4232202137528</v>
+        <v>444.6087679740798</v>
       </c>
       <c r="P45" t="n">
         <v>340.2452679645353</v>
